--- a/義大利2026.4.xlsx
+++ b/義大利2026.4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewchan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewchan/Desktop/義大利行程/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F140B3-F5AB-D049-86D8-173B5F20B183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278B7112-5E58-7C47-AE59-B4EB46102704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="2800" windowWidth="28240" windowHeight="17320" activeTab="1" xr2:uid="{724003AE-EFAF-8142-9B81-8677125E32E9}"/>
+    <workbookView xWindow="10160" yWindow="2800" windowWidth="28240" windowHeight="17320" xr2:uid="{724003AE-EFAF-8142-9B81-8677125E32E9}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>4/2~4/18米蘭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tuscany or rome+firenze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Milan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,6 +133,14 @@
   </si>
   <si>
     <t>Torino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lari</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuscany</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CFB866-653F-7145-8B1A-D0C841C3CCBA}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -582,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18">
@@ -611,7 +615,7 @@
         <v>46116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -640,7 +644,7 @@
         <v>46119</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -649,7 +653,7 @@
         <v>46120</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -667,7 +671,7 @@
         <v>46122</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -676,7 +680,7 @@
         <v>46123</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -685,7 +689,7 @@
         <v>46124</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -694,34 +698,40 @@
         <v>46125</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="18">
       <c r="A14" s="2">
         <v>46126</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="18">
       <c r="A15" s="2">
         <v>46127</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="18">
       <c r="A16" s="2">
         <v>46128</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1"/>
     </row>
@@ -730,7 +740,7 @@
         <v>46129</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1"/>
     </row>
@@ -765,60 +775,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BC1407-7C08-8242-9B37-93D8DDB0EE01}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
